--- a/2022/SAMSUNG/AUGUST/16.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/16.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2277,7 +2277,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="465">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3196,12 +3196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="42" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3275,21 +3269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3402,6 +3381,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3435,12 +3420,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3489,6 +3468,66 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3534,57 +3573,6 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3618,14 +3606,11 @@
     <xf numFmtId="0" fontId="4" fillId="42" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4101,33 +4086,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="388"/>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
+      <c r="A1" s="381"/>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="389"/>
-      <c r="B2" s="386" t="s">
+      <c r="A2" s="382"/>
+      <c r="B2" s="379" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="389"/>
-      <c r="B3" s="387" t="s">
+      <c r="A3" s="382"/>
+      <c r="B3" s="380" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="387"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="389"/>
+      <c r="A4" s="382"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4145,7 +4130,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="389"/>
+      <c r="A5" s="382"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4163,7 +4148,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="389"/>
+      <c r="A6" s="382"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4175,7 +4160,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="389"/>
+      <c r="A7" s="382"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4194,7 +4179,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="389"/>
+      <c r="A8" s="382"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4213,7 +4198,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="389"/>
+      <c r="A9" s="382"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4232,7 +4217,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="389"/>
+      <c r="A10" s="382"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4251,7 +4236,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="389"/>
+      <c r="A11" s="382"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4270,7 +4255,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="389"/>
+      <c r="A12" s="382"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4289,7 +4274,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="389"/>
+      <c r="A13" s="382"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4308,7 +4293,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="389"/>
+      <c r="A14" s="382"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4327,7 +4312,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="389"/>
+      <c r="A15" s="382"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4346,7 +4331,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="389"/>
+      <c r="A16" s="382"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4359,7 +4344,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="389"/>
+      <c r="A17" s="382"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4372,7 +4357,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="389"/>
+      <c r="A18" s="382"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4385,7 +4370,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="389"/>
+      <c r="A19" s="382"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4398,7 +4383,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="389"/>
+      <c r="A20" s="382"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4411,7 +4396,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="389"/>
+      <c r="A21" s="382"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4424,7 +4409,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="389"/>
+      <c r="A22" s="382"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4437,7 +4422,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="389"/>
+      <c r="A23" s="382"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4450,7 +4435,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="389"/>
+      <c r="A24" s="382"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4463,7 +4448,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="389"/>
+      <c r="A25" s="382"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4476,7 +4461,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="389"/>
+      <c r="A26" s="382"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4489,7 +4474,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="389"/>
+      <c r="A27" s="382"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4502,7 +4487,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="389"/>
+      <c r="A28" s="382"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4515,7 +4500,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="389"/>
+      <c r="A29" s="382"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4528,7 +4513,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="389"/>
+      <c r="A30" s="382"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4541,7 +4526,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="389"/>
+      <c r="A31" s="382"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4554,7 +4539,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="389"/>
+      <c r="A32" s="382"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4567,7 +4552,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="389"/>
+      <c r="A33" s="382"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4580,7 +4565,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="389"/>
+      <c r="A34" s="382"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4593,7 +4578,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="389"/>
+      <c r="A35" s="382"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4606,7 +4591,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="389"/>
+      <c r="A36" s="382"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4619,7 +4604,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="389"/>
+      <c r="A37" s="382"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4632,7 +4617,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="389"/>
+      <c r="A38" s="382"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4645,7 +4630,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="389"/>
+      <c r="A39" s="382"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4658,7 +4643,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="389"/>
+      <c r="A40" s="382"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4671,7 +4656,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="389"/>
+      <c r="A41" s="382"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4684,7 +4669,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="389"/>
+      <c r="A42" s="382"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4697,7 +4682,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="389"/>
+      <c r="A43" s="382"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4710,7 +4695,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="389"/>
+      <c r="A44" s="382"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4723,7 +4708,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="389"/>
+      <c r="A45" s="382"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4736,7 +4721,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="389"/>
+      <c r="A46" s="382"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4749,7 +4734,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="389"/>
+      <c r="A47" s="382"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4762,7 +4747,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="389"/>
+      <c r="A48" s="382"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4775,7 +4760,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="389"/>
+      <c r="A49" s="382"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4788,7 +4773,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="389"/>
+      <c r="A50" s="382"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4801,7 +4786,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="389"/>
+      <c r="A51" s="382"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4814,7 +4799,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="389"/>
+      <c r="A52" s="382"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4827,7 +4812,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="389"/>
+      <c r="A53" s="382"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4840,7 +4825,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="389"/>
+      <c r="A54" s="382"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4853,7 +4838,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="389"/>
+      <c r="A55" s="382"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4865,7 +4850,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="389"/>
+      <c r="A56" s="382"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4877,7 +4862,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="389"/>
+      <c r="A57" s="382"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4889,7 +4874,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="389"/>
+      <c r="A58" s="382"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4901,7 +4886,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="389"/>
+      <c r="A59" s="382"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4913,7 +4898,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="389"/>
+      <c r="A60" s="382"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4925,7 +4910,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="389"/>
+      <c r="A61" s="382"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4937,7 +4922,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="389"/>
+      <c r="A62" s="382"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4949,7 +4934,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="389"/>
+      <c r="A63" s="382"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4961,7 +4946,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="389"/>
+      <c r="A64" s="382"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4973,7 +4958,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="389"/>
+      <c r="A65" s="382"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4985,7 +4970,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="389"/>
+      <c r="A66" s="382"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4997,7 +4982,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="389"/>
+      <c r="A67" s="382"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5009,7 +4994,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="389"/>
+      <c r="A68" s="382"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5021,7 +5006,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="389"/>
+      <c r="A69" s="382"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5033,7 +5018,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="389"/>
+      <c r="A70" s="382"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5045,7 +5030,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="389"/>
+      <c r="A71" s="382"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5057,7 +5042,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="389"/>
+      <c r="A72" s="382"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5069,7 +5054,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="389"/>
+      <c r="A73" s="382"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5081,7 +5066,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="389"/>
+      <c r="A74" s="382"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5093,7 +5078,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="389"/>
+      <c r="A75" s="382"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5105,7 +5090,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="389"/>
+      <c r="A76" s="382"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5117,7 +5102,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="389"/>
+      <c r="A77" s="382"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5129,7 +5114,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="389"/>
+      <c r="A78" s="382"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5141,7 +5126,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="389"/>
+      <c r="A79" s="382"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5153,7 +5138,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="389"/>
+      <c r="A80" s="382"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5165,7 +5150,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="389"/>
+      <c r="A81" s="382"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5177,7 +5162,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="389"/>
+      <c r="A82" s="382"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5189,7 +5174,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="389"/>
+      <c r="A83" s="382"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5246,33 +5231,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="388"/>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
+      <c r="A1" s="381"/>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
+      <c r="F1" s="381"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="389"/>
-      <c r="B2" s="386" t="s">
+      <c r="A2" s="382"/>
+      <c r="B2" s="379" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="389"/>
-      <c r="B3" s="387" t="s">
+      <c r="A3" s="382"/>
+      <c r="B3" s="380" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="387"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="389"/>
+      <c r="A4" s="382"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5290,7 +5275,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="389"/>
+      <c r="A5" s="382"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5308,7 +5293,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="389"/>
+      <c r="A6" s="382"/>
       <c r="B6" s="26" t="s">
         <v>211</v>
       </c>
@@ -5326,7 +5311,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="389"/>
+      <c r="A7" s="382"/>
       <c r="B7" s="26" t="s">
         <v>215</v>
       </c>
@@ -5346,7 +5331,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="389"/>
+      <c r="A8" s="382"/>
       <c r="B8" s="26" t="s">
         <v>221</v>
       </c>
@@ -5366,7 +5351,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="389"/>
+      <c r="A9" s="382"/>
       <c r="B9" s="26" t="s">
         <v>225</v>
       </c>
@@ -5386,7 +5371,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="389"/>
+      <c r="A10" s="382"/>
       <c r="B10" s="26" t="s">
         <v>229</v>
       </c>
@@ -5406,7 +5391,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="389"/>
+      <c r="A11" s="382"/>
       <c r="B11" s="26" t="s">
         <v>230</v>
       </c>
@@ -5426,7 +5411,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="389"/>
+      <c r="A12" s="382"/>
       <c r="B12" s="26" t="s">
         <v>234</v>
       </c>
@@ -5446,7 +5431,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="389"/>
+      <c r="A13" s="382"/>
       <c r="B13" s="26" t="s">
         <v>239</v>
       </c>
@@ -5466,7 +5451,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="389"/>
+      <c r="A14" s="382"/>
       <c r="B14" s="26" t="s">
         <v>241</v>
       </c>
@@ -5486,7 +5471,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="389"/>
+      <c r="A15" s="382"/>
       <c r="B15" s="26" t="s">
         <v>245</v>
       </c>
@@ -5506,7 +5491,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="389"/>
+      <c r="A16" s="382"/>
       <c r="B16" s="26" t="s">
         <v>252</v>
       </c>
@@ -5526,7 +5511,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="389"/>
+      <c r="A17" s="382"/>
       <c r="B17" s="26" t="s">
         <v>255</v>
       </c>
@@ -5546,7 +5531,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="389"/>
+      <c r="A18" s="382"/>
       <c r="B18" s="26" t="s">
         <v>262</v>
       </c>
@@ -5566,7 +5551,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="389"/>
+      <c r="A19" s="382"/>
       <c r="B19" s="26"/>
       <c r="C19" s="226"/>
       <c r="D19" s="228"/>
@@ -5580,7 +5565,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="389"/>
+      <c r="A20" s="382"/>
       <c r="B20" s="26"/>
       <c r="C20" s="226"/>
       <c r="D20" s="226"/>
@@ -5594,7 +5579,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="389"/>
+      <c r="A21" s="382"/>
       <c r="B21" s="26"/>
       <c r="C21" s="226"/>
       <c r="D21" s="226"/>
@@ -5608,7 +5593,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="389"/>
+      <c r="A22" s="382"/>
       <c r="B22" s="26"/>
       <c r="C22" s="226"/>
       <c r="D22" s="228"/>
@@ -5622,7 +5607,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="389"/>
+      <c r="A23" s="382"/>
       <c r="B23" s="26"/>
       <c r="C23" s="226"/>
       <c r="D23" s="226"/>
@@ -5636,7 +5621,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="389"/>
+      <c r="A24" s="382"/>
       <c r="B24" s="26"/>
       <c r="C24" s="226"/>
       <c r="D24" s="228"/>
@@ -5650,7 +5635,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="389"/>
+      <c r="A25" s="382"/>
       <c r="B25" s="26"/>
       <c r="C25" s="226"/>
       <c r="D25" s="226"/>
@@ -5664,7 +5649,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="389"/>
+      <c r="A26" s="382"/>
       <c r="B26" s="26"/>
       <c r="C26" s="226"/>
       <c r="D26" s="226"/>
@@ -5678,7 +5663,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="389"/>
+      <c r="A27" s="382"/>
       <c r="B27" s="26"/>
       <c r="C27" s="226"/>
       <c r="D27" s="226"/>
@@ -5692,7 +5677,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="389"/>
+      <c r="A28" s="382"/>
       <c r="B28" s="26"/>
       <c r="C28" s="226"/>
       <c r="D28" s="228"/>
@@ -5706,7 +5691,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="389"/>
+      <c r="A29" s="382"/>
       <c r="B29" s="26"/>
       <c r="C29" s="226"/>
       <c r="D29" s="226"/>
@@ -5720,7 +5705,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="389"/>
+      <c r="A30" s="382"/>
       <c r="B30" s="26"/>
       <c r="C30" s="226"/>
       <c r="D30" s="226"/>
@@ -5734,7 +5719,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="389"/>
+      <c r="A31" s="382"/>
       <c r="B31" s="26"/>
       <c r="C31" s="226"/>
       <c r="D31" s="226"/>
@@ -5748,7 +5733,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="389"/>
+      <c r="A32" s="382"/>
       <c r="B32" s="26"/>
       <c r="C32" s="226"/>
       <c r="D32" s="226"/>
@@ -5762,7 +5747,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="389"/>
+      <c r="A33" s="382"/>
       <c r="B33" s="26"/>
       <c r="C33" s="226"/>
       <c r="D33" s="228"/>
@@ -5776,7 +5761,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="389"/>
+      <c r="A34" s="382"/>
       <c r="B34" s="26"/>
       <c r="C34" s="226"/>
       <c r="D34" s="226"/>
@@ -5790,7 +5775,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="389"/>
+      <c r="A35" s="382"/>
       <c r="B35" s="26"/>
       <c r="C35" s="226"/>
       <c r="D35" s="226"/>
@@ -5804,7 +5789,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="389"/>
+      <c r="A36" s="382"/>
       <c r="B36" s="26"/>
       <c r="C36" s="226"/>
       <c r="D36" s="226"/>
@@ -5818,7 +5803,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="389"/>
+      <c r="A37" s="382"/>
       <c r="B37" s="26"/>
       <c r="C37" s="226"/>
       <c r="D37" s="226"/>
@@ -5832,7 +5817,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="389"/>
+      <c r="A38" s="382"/>
       <c r="B38" s="26"/>
       <c r="C38" s="226"/>
       <c r="D38" s="226"/>
@@ -5846,7 +5831,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="389"/>
+      <c r="A39" s="382"/>
       <c r="B39" s="26"/>
       <c r="C39" s="226"/>
       <c r="D39" s="226"/>
@@ -5860,7 +5845,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="389"/>
+      <c r="A40" s="382"/>
       <c r="B40" s="26"/>
       <c r="C40" s="226"/>
       <c r="D40" s="226"/>
@@ -5874,7 +5859,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="389"/>
+      <c r="A41" s="382"/>
       <c r="B41" s="26"/>
       <c r="C41" s="226"/>
       <c r="D41" s="226"/>
@@ -5888,7 +5873,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="389"/>
+      <c r="A42" s="382"/>
       <c r="B42" s="26"/>
       <c r="C42" s="226"/>
       <c r="D42" s="226"/>
@@ -5902,7 +5887,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="389"/>
+      <c r="A43" s="382"/>
       <c r="B43" s="26"/>
       <c r="C43" s="226"/>
       <c r="D43" s="226"/>
@@ -5916,7 +5901,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="389"/>
+      <c r="A44" s="382"/>
       <c r="B44" s="26"/>
       <c r="C44" s="226"/>
       <c r="D44" s="226"/>
@@ -5930,7 +5915,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="389"/>
+      <c r="A45" s="382"/>
       <c r="B45" s="26"/>
       <c r="C45" s="226"/>
       <c r="D45" s="226"/>
@@ -5944,7 +5929,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="389"/>
+      <c r="A46" s="382"/>
       <c r="B46" s="26"/>
       <c r="C46" s="226"/>
       <c r="D46" s="226"/>
@@ -5958,7 +5943,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="389"/>
+      <c r="A47" s="382"/>
       <c r="B47" s="26"/>
       <c r="C47" s="226"/>
       <c r="D47" s="226"/>
@@ -5972,7 +5957,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="389"/>
+      <c r="A48" s="382"/>
       <c r="B48" s="26"/>
       <c r="C48" s="226"/>
       <c r="D48" s="226"/>
@@ -5986,7 +5971,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="389"/>
+      <c r="A49" s="382"/>
       <c r="B49" s="26"/>
       <c r="C49" s="226"/>
       <c r="D49" s="226"/>
@@ -6000,7 +5985,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="389"/>
+      <c r="A50" s="382"/>
       <c r="B50" s="26"/>
       <c r="C50" s="226"/>
       <c r="D50" s="226"/>
@@ -6014,7 +5999,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="389"/>
+      <c r="A51" s="382"/>
       <c r="B51" s="26"/>
       <c r="C51" s="226"/>
       <c r="D51" s="226"/>
@@ -6028,7 +6013,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="389"/>
+      <c r="A52" s="382"/>
       <c r="B52" s="26"/>
       <c r="C52" s="226"/>
       <c r="D52" s="226"/>
@@ -6042,7 +6027,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="389"/>
+      <c r="A53" s="382"/>
       <c r="B53" s="26"/>
       <c r="C53" s="226"/>
       <c r="D53" s="226"/>
@@ -6056,7 +6041,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="389"/>
+      <c r="A54" s="382"/>
       <c r="B54" s="26"/>
       <c r="C54" s="226"/>
       <c r="D54" s="226"/>
@@ -6070,7 +6055,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="389"/>
+      <c r="A55" s="382"/>
       <c r="B55" s="26"/>
       <c r="C55" s="226"/>
       <c r="D55" s="226"/>
@@ -6084,7 +6069,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="389"/>
+      <c r="A56" s="382"/>
       <c r="B56" s="26"/>
       <c r="C56" s="226"/>
       <c r="D56" s="226"/>
@@ -6098,7 +6083,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="389"/>
+      <c r="A57" s="382"/>
       <c r="B57" s="26"/>
       <c r="C57" s="226"/>
       <c r="D57" s="226"/>
@@ -6109,7 +6094,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="389"/>
+      <c r="A58" s="382"/>
       <c r="B58" s="26"/>
       <c r="C58" s="226"/>
       <c r="D58" s="226"/>
@@ -6120,7 +6105,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="389"/>
+      <c r="A59" s="382"/>
       <c r="B59" s="26"/>
       <c r="C59" s="226"/>
       <c r="D59" s="226"/>
@@ -6131,7 +6116,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="389"/>
+      <c r="A60" s="382"/>
       <c r="B60" s="26"/>
       <c r="C60" s="226"/>
       <c r="D60" s="226"/>
@@ -6142,7 +6127,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="389"/>
+      <c r="A61" s="382"/>
       <c r="B61" s="26"/>
       <c r="C61" s="226"/>
       <c r="D61" s="226"/>
@@ -6153,7 +6138,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="389"/>
+      <c r="A62" s="382"/>
       <c r="B62" s="26"/>
       <c r="C62" s="226"/>
       <c r="D62" s="226"/>
@@ -6164,7 +6149,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="389"/>
+      <c r="A63" s="382"/>
       <c r="B63" s="26"/>
       <c r="C63" s="226"/>
       <c r="D63" s="226"/>
@@ -6175,7 +6160,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="389"/>
+      <c r="A64" s="382"/>
       <c r="B64" s="26"/>
       <c r="C64" s="226"/>
       <c r="D64" s="226"/>
@@ -6186,7 +6171,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="389"/>
+      <c r="A65" s="382"/>
       <c r="B65" s="26"/>
       <c r="C65" s="226"/>
       <c r="D65" s="226"/>
@@ -6197,7 +6182,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="389"/>
+      <c r="A66" s="382"/>
       <c r="B66" s="26"/>
       <c r="C66" s="226"/>
       <c r="D66" s="226"/>
@@ -6208,7 +6193,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="389"/>
+      <c r="A67" s="382"/>
       <c r="B67" s="26"/>
       <c r="C67" s="226"/>
       <c r="D67" s="226"/>
@@ -6219,7 +6204,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="389"/>
+      <c r="A68" s="382"/>
       <c r="B68" s="26"/>
       <c r="C68" s="226"/>
       <c r="D68" s="226"/>
@@ -6230,7 +6215,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="389"/>
+      <c r="A69" s="382"/>
       <c r="B69" s="26"/>
       <c r="C69" s="226"/>
       <c r="D69" s="226"/>
@@ -6241,7 +6226,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="389"/>
+      <c r="A70" s="382"/>
       <c r="B70" s="26"/>
       <c r="C70" s="226"/>
       <c r="D70" s="226"/>
@@ -6252,7 +6237,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="389"/>
+      <c r="A71" s="382"/>
       <c r="B71" s="26"/>
       <c r="C71" s="226"/>
       <c r="D71" s="226"/>
@@ -6263,7 +6248,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="389"/>
+      <c r="A72" s="382"/>
       <c r="B72" s="26"/>
       <c r="C72" s="226"/>
       <c r="D72" s="226"/>
@@ -6274,7 +6259,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="389"/>
+      <c r="A73" s="382"/>
       <c r="B73" s="26"/>
       <c r="C73" s="226"/>
       <c r="D73" s="226"/>
@@ -6285,7 +6270,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="389"/>
+      <c r="A74" s="382"/>
       <c r="B74" s="26"/>
       <c r="C74" s="226"/>
       <c r="D74" s="226"/>
@@ -6296,7 +6281,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="389"/>
+      <c r="A75" s="382"/>
       <c r="B75" s="26"/>
       <c r="C75" s="226"/>
       <c r="D75" s="226"/>
@@ -6307,7 +6292,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="389"/>
+      <c r="A76" s="382"/>
       <c r="B76" s="26"/>
       <c r="C76" s="226"/>
       <c r="D76" s="226"/>
@@ -6318,7 +6303,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="389"/>
+      <c r="A77" s="382"/>
       <c r="B77" s="26"/>
       <c r="C77" s="226"/>
       <c r="D77" s="226"/>
@@ -6329,7 +6314,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="389"/>
+      <c r="A78" s="382"/>
       <c r="B78" s="26"/>
       <c r="C78" s="226"/>
       <c r="D78" s="226"/>
@@ -6340,7 +6325,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="389"/>
+      <c r="A79" s="382"/>
       <c r="B79" s="26"/>
       <c r="C79" s="226"/>
       <c r="D79" s="226"/>
@@ -6352,7 +6337,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="389"/>
+      <c r="A80" s="382"/>
       <c r="B80" s="26"/>
       <c r="C80" s="226"/>
       <c r="D80" s="226"/>
@@ -6364,7 +6349,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="389"/>
+      <c r="A81" s="382"/>
       <c r="B81" s="26"/>
       <c r="C81" s="226"/>
       <c r="D81" s="226"/>
@@ -6376,7 +6361,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="389"/>
+      <c r="A82" s="382"/>
       <c r="B82" s="26"/>
       <c r="C82" s="226"/>
       <c r="D82" s="226"/>
@@ -6388,7 +6373,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="389"/>
+      <c r="A83" s="382"/>
       <c r="B83" s="31"/>
       <c r="C83" s="227">
         <f>SUM(C5:C72)</f>
@@ -6451,67 +6436,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="387" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
-      <c r="K1" s="392"/>
-      <c r="L1" s="392"/>
-      <c r="M1" s="392"/>
-      <c r="N1" s="392"/>
-      <c r="O1" s="392"/>
-      <c r="P1" s="392"/>
-      <c r="Q1" s="392"/>
+      <c r="B1" s="387"/>
+      <c r="C1" s="387"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="387"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="387"/>
+      <c r="L1" s="387"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="387"/>
+      <c r="O1" s="387"/>
+      <c r="P1" s="387"/>
+      <c r="Q1" s="387"/>
     </row>
     <row r="2" spans="1:24" s="60" customFormat="1" ht="18">
-      <c r="A2" s="393" t="s">
+      <c r="A2" s="388" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="393"/>
-      <c r="F2" s="393"/>
-      <c r="G2" s="393"/>
-      <c r="H2" s="393"/>
-      <c r="I2" s="393"/>
-      <c r="J2" s="393"/>
-      <c r="K2" s="393"/>
-      <c r="L2" s="393"/>
-      <c r="M2" s="393"/>
-      <c r="N2" s="393"/>
-      <c r="O2" s="393"/>
-      <c r="P2" s="393"/>
-      <c r="Q2" s="393"/>
+      <c r="B2" s="388"/>
+      <c r="C2" s="388"/>
+      <c r="D2" s="388"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="388"/>
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="388"/>
+      <c r="K2" s="388"/>
+      <c r="L2" s="388"/>
+      <c r="M2" s="388"/>
+      <c r="N2" s="388"/>
+      <c r="O2" s="388"/>
+      <c r="P2" s="388"/>
+      <c r="Q2" s="388"/>
     </row>
     <row r="3" spans="1:24" s="61" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="394" t="s">
+      <c r="A3" s="389" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="395"/>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="395"/>
-      <c r="M3" s="395"/>
-      <c r="N3" s="395"/>
-      <c r="O3" s="395"/>
-      <c r="P3" s="395"/>
-      <c r="Q3" s="396"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="390"/>
+      <c r="K3" s="390"/>
+      <c r="L3" s="390"/>
+      <c r="M3" s="390"/>
+      <c r="N3" s="390"/>
+      <c r="O3" s="390"/>
+      <c r="P3" s="390"/>
+      <c r="Q3" s="391"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6520,52 +6505,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="397" t="s">
+      <c r="A4" s="392" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="399" t="s">
+      <c r="B4" s="394" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="401" t="s">
+      <c r="C4" s="383" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="401" t="s">
+      <c r="D4" s="383" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="401" t="s">
+      <c r="E4" s="383" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="401" t="s">
+      <c r="F4" s="383" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="401" t="s">
+      <c r="G4" s="383" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="401" t="s">
+      <c r="H4" s="383" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="401" t="s">
+      <c r="I4" s="383" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="401" t="s">
+      <c r="J4" s="383" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="401" t="s">
+      <c r="K4" s="383" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="401" t="s">
+      <c r="L4" s="383" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="401" t="s">
+      <c r="M4" s="383" t="s">
         <v>254</v>
       </c>
-      <c r="N4" s="401" t="s">
+      <c r="N4" s="383" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="390" t="s">
+      <c r="O4" s="385" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="403" t="s">
+      <c r="P4" s="396" t="s">
         <v>216</v>
       </c>
       <c r="Q4" s="117" t="s">
@@ -6578,22 +6563,22 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="398"/>
-      <c r="B5" s="400"/>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="402"/>
-      <c r="J5" s="402"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="402"/>
-      <c r="M5" s="402"/>
-      <c r="N5" s="402"/>
-      <c r="O5" s="391"/>
-      <c r="P5" s="404"/>
+      <c r="A5" s="393"/>
+      <c r="B5" s="395"/>
+      <c r="C5" s="384"/>
+      <c r="D5" s="384"/>
+      <c r="E5" s="384"/>
+      <c r="F5" s="384"/>
+      <c r="G5" s="384"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="384"/>
+      <c r="J5" s="384"/>
+      <c r="K5" s="384"/>
+      <c r="L5" s="384"/>
+      <c r="M5" s="384"/>
+      <c r="N5" s="384"/>
+      <c r="O5" s="386"/>
+      <c r="P5" s="397"/>
       <c r="Q5" s="118" t="s">
         <v>36</v>
       </c>
@@ -9603,6 +9588,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9619,9 +9607,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9634,8 +9619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9661,14 +9646,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="410" t="s">
+      <c r="A1" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="411"/>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="412"/>
+      <c r="B1" s="404"/>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="405"/>
       <c r="G1" s="55"/>
       <c r="H1" s="134"/>
       <c r="I1" s="134"/>
@@ -9761,14 +9746,14 @@
       <c r="CR1" s="129"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="406" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="414"/>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="415"/>
+      <c r="B2" s="407"/>
+      <c r="C2" s="407"/>
+      <c r="D2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="408"/>
       <c r="G2" s="55"/>
       <c r="H2" s="134"/>
       <c r="I2" s="134"/>
@@ -9861,14 +9846,14 @@
       <c r="CR2" s="129"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="409" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="417"/>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="417"/>
-      <c r="F3" s="418"/>
+      <c r="B3" s="410"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
+      <c r="E3" s="410"/>
+      <c r="F3" s="411"/>
       <c r="G3" s="55"/>
       <c r="H3" s="134"/>
       <c r="I3" s="134"/>
@@ -9961,13 +9946,13 @@
       <c r="CR3" s="129"/>
     </row>
     <row r="4" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A4" s="336" t="s">
+      <c r="A4" s="334" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="337" t="s">
+      <c r="C4" s="335" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="176" t="s">
@@ -9976,7 +9961,7 @@
       <c r="E4" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="338" t="s">
+      <c r="F4" s="336" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="55"/>
@@ -10071,19 +10056,19 @@
       <c r="CR4" s="129"/>
     </row>
     <row r="5" spans="1:96">
-      <c r="A5" s="334" t="s">
+      <c r="A5" s="332" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="335">
+      <c r="B5" s="333">
         <v>30188</v>
       </c>
       <c r="C5" s="183">
         <v>1091665</v>
       </c>
-      <c r="D5" s="335">
+      <c r="D5" s="333">
         <v>2100</v>
       </c>
-      <c r="E5" s="335">
+      <c r="E5" s="333">
         <f>C5+D5</f>
         <v>1093765</v>
       </c>
@@ -10414,7 +10399,7 @@
         <f t="shared" si="0"/>
         <v>80470</v>
       </c>
-      <c r="F8" s="329"/>
+      <c r="F8" s="327"/>
       <c r="G8" s="134"/>
       <c r="H8" s="139"/>
       <c r="I8" s="139"/>
@@ -10523,7 +10508,7 @@
         <f t="shared" si="0"/>
         <v>79250</v>
       </c>
-      <c r="F9" s="330"/>
+      <c r="F9" s="328"/>
       <c r="G9" s="134"/>
       <c r="H9" s="139"/>
       <c r="I9" s="139"/>
@@ -10632,7 +10617,7 @@
         <f t="shared" si="0"/>
         <v>-22011</v>
       </c>
-      <c r="F10" s="331"/>
+      <c r="F10" s="329"/>
       <c r="G10" s="134"/>
       <c r="H10" s="139"/>
       <c r="I10" s="139"/>
@@ -10741,7 +10726,7 @@
         <f t="shared" si="0"/>
         <v>45838</v>
       </c>
-      <c r="F11" s="329"/>
+      <c r="F11" s="327"/>
       <c r="G11" s="139"/>
       <c r="H11" s="139"/>
       <c r="I11" s="139"/>
@@ -10850,7 +10835,7 @@
         <f t="shared" si="0"/>
         <v>227585</v>
       </c>
-      <c r="F12" s="329"/>
+      <c r="F12" s="327"/>
       <c r="G12" s="139"/>
       <c r="H12" s="139"/>
       <c r="I12" s="139"/>
@@ -10959,7 +10944,7 @@
         <f t="shared" si="0"/>
         <v>181555</v>
       </c>
-      <c r="F13" s="331"/>
+      <c r="F13" s="329"/>
       <c r="G13" s="134"/>
       <c r="H13" s="139"/>
       <c r="I13" s="139"/>
@@ -11068,7 +11053,7 @@
         <f t="shared" si="0"/>
         <v>189108</v>
       </c>
-      <c r="F14" s="330"/>
+      <c r="F14" s="328"/>
       <c r="G14" s="134"/>
       <c r="H14" s="139"/>
       <c r="I14" s="139"/>
@@ -11177,7 +11162,7 @@
         <f t="shared" si="0"/>
         <v>145783</v>
       </c>
-      <c r="F15" s="329"/>
+      <c r="F15" s="327"/>
       <c r="G15" s="139"/>
       <c r="H15" s="139"/>
       <c r="I15" s="139"/>
@@ -11286,7 +11271,7 @@
         <f t="shared" si="0"/>
         <v>207486</v>
       </c>
-      <c r="F16" s="329"/>
+      <c r="F16" s="327"/>
       <c r="G16" s="139"/>
       <c r="H16" s="139"/>
       <c r="I16" s="139"/>
@@ -11495,16 +11480,16 @@
         <v>436461</v>
       </c>
       <c r="C18" s="47">
-        <v>351726</v>
+        <v>351753</v>
       </c>
       <c r="D18" s="44">
         <v>730</v>
       </c>
       <c r="E18" s="44">
         <f t="shared" si="0"/>
-        <v>352456</v>
-      </c>
-      <c r="F18" s="331"/>
+        <v>352483</v>
+      </c>
+      <c r="F18" s="329"/>
       <c r="G18" s="134"/>
       <c r="H18" s="139"/>
       <c r="I18" s="139"/>
@@ -11605,7 +11590,7 @@
         <f>C19+D19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="330"/>
+      <c r="F19" s="328"/>
       <c r="G19" s="134"/>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
@@ -12211,7 +12196,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="330"/>
+      <c r="F25" s="328"/>
       <c r="G25" s="134"/>
       <c r="H25" s="139"/>
       <c r="I25" s="139"/>
@@ -12312,7 +12297,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="332"/>
+      <c r="F26" s="330"/>
       <c r="G26" s="134"/>
       <c r="H26" s="139"/>
       <c r="I26" s="139"/>
@@ -12413,7 +12398,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="330"/>
+      <c r="F27" s="328"/>
       <c r="G27" s="134"/>
       <c r="H27" s="139"/>
       <c r="I27" s="139"/>
@@ -12514,7 +12499,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="330"/>
+      <c r="F28" s="328"/>
       <c r="G28" s="134"/>
       <c r="H28" s="139"/>
       <c r="I28" s="139"/>
@@ -12615,7 +12600,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="330"/>
+      <c r="F29" s="328"/>
       <c r="G29" s="134"/>
       <c r="H29" s="139"/>
       <c r="I29" s="139"/>
@@ -12716,7 +12701,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="329"/>
+      <c r="F30" s="327"/>
       <c r="G30" s="132"/>
       <c r="H30" s="151"/>
       <c r="I30" s="132"/>
@@ -12817,7 +12802,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="329"/>
+      <c r="F31" s="327"/>
       <c r="G31" s="132"/>
       <c r="H31" s="151"/>
       <c r="I31" s="152"/>
@@ -12918,7 +12903,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="333"/>
+      <c r="F32" s="331"/>
       <c r="G32" s="143"/>
       <c r="H32" s="131"/>
       <c r="I32" s="152"/>
@@ -13020,7 +13005,7 @@
       </c>
       <c r="C33" s="231">
         <f>SUM(C5:C32)</f>
-        <v>3540721</v>
+        <v>3540748</v>
       </c>
       <c r="D33" s="230">
         <f>SUM(D5:D32)</f>
@@ -13028,11 +13013,11 @@
       </c>
       <c r="E33" s="230">
         <f>SUM(E5:E32)</f>
-        <v>3552091</v>
+        <v>3552118</v>
       </c>
       <c r="F33" s="230">
         <f>B33-E33</f>
-        <v>-216704</v>
+        <v>-216731</v>
       </c>
       <c r="G33" s="130"/>
       <c r="H33" s="131"/>
@@ -13225,12 +13210,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="124"/>
-      <c r="B35" s="407" t="s">
+      <c r="B35" s="400" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="407"/>
-      <c r="D35" s="407"/>
-      <c r="E35" s="407"/>
+      <c r="C35" s="400"/>
+      <c r="D35" s="400"/>
+      <c r="E35" s="400"/>
       <c r="F35" s="125"/>
       <c r="G35" s="130"/>
       <c r="H35" s="131"/>
@@ -13444,7 +13429,7 @@
       <c r="C37" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="318">
+      <c r="D37" s="458">
         <v>16000</v>
       </c>
       <c r="E37" s="297" t="s">
@@ -13660,7 +13645,7 @@
       <c r="C39" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="319">
+      <c r="D39" s="197">
         <v>28100</v>
       </c>
       <c r="E39" s="168" t="s">
@@ -13768,7 +13753,7 @@
       <c r="C40" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="319">
+      <c r="D40" s="197">
         <v>20000</v>
       </c>
       <c r="E40" s="167" t="s">
@@ -13975,19 +13960,19 @@
       <c r="CR41" s="129"/>
     </row>
     <row r="42" spans="1:96">
-      <c r="A42" s="347" t="s">
+      <c r="A42" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="B42" s="348" t="s">
+      <c r="B42" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="349" t="s">
+      <c r="C42" s="459" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="350">
+      <c r="D42" s="197">
         <v>13000</v>
       </c>
-      <c r="E42" s="351" t="s">
+      <c r="E42" s="167" t="s">
         <v>253</v>
       </c>
       <c r="F42" s="129"/>
@@ -14095,9 +14080,9 @@
       </c>
       <c r="E43" s="167"/>
       <c r="F43" s="125"/>
-      <c r="G43" s="408"/>
-      <c r="H43" s="408"/>
-      <c r="I43" s="408"/>
+      <c r="G43" s="401"/>
+      <c r="H43" s="401"/>
+      <c r="I43" s="401"/>
       <c r="J43" s="55"/>
       <c r="K43" s="134"/>
       <c r="L43" s="55"/>
@@ -14408,11 +14393,11 @@
       <c r="A46" s="283" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="356" t="s">
+      <c r="B46" s="349" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="284"/>
-      <c r="D46" s="357">
+      <c r="D46" s="350">
         <v>85100</v>
       </c>
       <c r="E46" s="285" t="s">
@@ -16826,8 +16811,8 @@
         <v>69</v>
       </c>
       <c r="C68" s="264"/>
-      <c r="D68" s="353">
-        <v>318463</v>
+      <c r="D68" s="346">
+        <v>318433</v>
       </c>
       <c r="E68" s="267" t="s">
         <v>262</v>
@@ -16943,7 +16928,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="264"/>
-      <c r="D69" s="353">
+      <c r="D69" s="346">
         <v>302529</v>
       </c>
       <c r="E69" s="267" t="s">
@@ -17062,8 +17047,8 @@
         <v>78</v>
       </c>
       <c r="C70" s="264"/>
-      <c r="D70" s="353">
-        <v>391653</v>
+      <c r="D70" s="346">
+        <v>391656</v>
       </c>
       <c r="E70" s="267" t="s">
         <v>255</v>
@@ -17179,7 +17164,7 @@
         <v>105</v>
       </c>
       <c r="C71" s="264"/>
-      <c r="D71" s="353">
+      <c r="D71" s="346">
         <v>66145</v>
       </c>
       <c r="E71" s="276" t="s">
@@ -17296,7 +17281,7 @@
         <v>101</v>
       </c>
       <c r="C72" s="264"/>
-      <c r="D72" s="353">
+      <c r="D72" s="346">
         <v>271949</v>
       </c>
       <c r="E72" s="266" t="s">
@@ -17413,7 +17398,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="264"/>
-      <c r="D73" s="353">
+      <c r="D73" s="346">
         <v>209997</v>
       </c>
       <c r="E73" s="267" t="s">
@@ -17530,7 +17515,7 @@
         <v>249</v>
       </c>
       <c r="C74" s="264"/>
-      <c r="D74" s="265">
+      <c r="D74" s="346">
         <v>61308</v>
       </c>
       <c r="E74" s="267" t="s">
@@ -17649,7 +17634,7 @@
         <v>260</v>
       </c>
       <c r="C75" s="264"/>
-      <c r="D75" s="265">
+      <c r="D75" s="346">
         <v>8000</v>
       </c>
       <c r="E75" s="267" t="s">
@@ -22166,14 +22151,14 @@
       <c r="CR118" s="129"/>
     </row>
     <row r="119" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A119" s="405" t="s">
+      <c r="A119" s="398" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="406"/>
-      <c r="C119" s="409"/>
+      <c r="B119" s="399"/>
+      <c r="C119" s="402"/>
       <c r="D119" s="201">
         <f>SUM(D37:D118)</f>
-        <v>3314581</v>
+        <v>3314554</v>
       </c>
       <c r="E119" s="196"/>
       <c r="F119" s="129"/>
@@ -22374,14 +22359,14 @@
       <c r="CR120" s="129"/>
     </row>
     <row r="121" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A121" s="405" t="s">
+      <c r="A121" s="398" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="406"/>
-      <c r="C121" s="406"/>
+      <c r="B121" s="399"/>
+      <c r="C121" s="399"/>
       <c r="D121" s="201">
         <f>D119+L121</f>
-        <v>3314581</v>
+        <v>3314554</v>
       </c>
       <c r="E121" s="196"/>
       <c r="F121" s="129"/>
@@ -33483,8 +33468,8 @@
   </sheetPr>
   <dimension ref="A1:R214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33510,28 +33495,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="419" t="s">
+      <c r="A1" s="432" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="421"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="434"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="434"/>
-      <c r="J1" s="434"/>
-      <c r="K1" s="434"/>
+      <c r="I1" s="427"/>
+      <c r="J1" s="427"/>
+      <c r="K1" s="427"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="428" t="s">
+      <c r="A2" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="429"/>
-      <c r="C2" s="429"/>
-      <c r="D2" s="429"/>
-      <c r="E2" s="430"/>
+      <c r="B2" s="442"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="443"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33552,13 +33537,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="422" t="s">
+      <c r="A3" s="435" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="423"/>
-      <c r="C3" s="423"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="424"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="437"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33585,13 +33570,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="431" t="s">
+      <c r="A4" s="444" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="432"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="433"/>
+      <c r="B4" s="445"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="446"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -33651,10 +33636,10 @@
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="354">
+      <c r="Q5" s="347">
         <v>40500</v>
       </c>
-      <c r="R5" s="354" t="s">
+      <c r="R5" s="347" t="s">
         <v>204</v>
       </c>
     </row>
@@ -33693,10 +33678,10 @@
       </c>
       <c r="N6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="354">
+      <c r="Q6" s="347">
         <v>35000</v>
       </c>
-      <c r="R6" s="354" t="s">
+      <c r="R6" s="347" t="s">
         <v>205</v>
       </c>
     </row>
@@ -33733,10 +33718,10 @@
         <v>98</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="354">
+      <c r="Q7" s="347">
         <v>28100</v>
       </c>
-      <c r="R7" s="354" t="s">
+      <c r="R7" s="347" t="s">
         <v>206</v>
       </c>
     </row>
@@ -33744,7 +33729,7 @@
       <c r="A8" s="239"/>
       <c r="B8" s="223"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="366"/>
+      <c r="D8" s="359"/>
       <c r="E8" s="240"/>
       <c r="F8" s="7"/>
       <c r="G8" s="219"/>
@@ -33768,7 +33753,7 @@
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="355">
+      <c r="Q8" s="348">
         <f>SUM(Q5:Q7)</f>
         <v>103600</v>
       </c>
@@ -33784,7 +33769,7 @@
         <v>24220</v>
       </c>
       <c r="C9" s="38"/>
-      <c r="D9" s="366" t="s">
+      <c r="D9" s="359" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="257">
@@ -33825,10 +33810,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="38"/>
-      <c r="D10" s="366" t="s">
+      <c r="D10" s="359" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="352">
+      <c r="E10" s="345">
         <v>-1964481</v>
       </c>
       <c r="F10" s="7"/>
@@ -33859,7 +33844,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="21.75">
-      <c r="A11" s="320" t="s">
+      <c r="A11" s="318" t="s">
         <v>104</v>
       </c>
       <c r="B11" s="314">
@@ -33936,7 +33921,7 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" s="256" customFormat="1" ht="21.75">
-      <c r="A13" s="365"/>
+      <c r="A13" s="358"/>
       <c r="B13" s="305"/>
       <c r="C13" s="38"/>
       <c r="D13" s="303" t="s">
@@ -34075,11 +34060,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="279"/>
-      <c r="I17" s="435" t="s">
+      <c r="I17" s="420" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="435"/>
-      <c r="K17" s="435"/>
+      <c r="J17" s="420"/>
+      <c r="K17" s="420"/>
       <c r="L17" s="310">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34102,11 +34087,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="279"/>
-      <c r="I18" s="436" t="s">
+      <c r="I18" s="428" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="436"/>
-      <c r="K18" s="436"/>
+      <c r="J18" s="428"/>
+      <c r="K18" s="428"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34118,21 +34103,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="425" t="s">
+      <c r="A19" s="438" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="426"/>
-      <c r="C19" s="426"/>
-      <c r="D19" s="426"/>
-      <c r="E19" s="427"/>
+      <c r="B19" s="439"/>
+      <c r="C19" s="439"/>
+      <c r="D19" s="439"/>
+      <c r="E19" s="440"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="443" t="s">
+      <c r="I19" s="423" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="443"/>
-      <c r="K19" s="443"/>
+      <c r="J19" s="423"/>
+      <c r="K19" s="423"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34144,10 +34129,10 @@
       <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A20" s="339" t="s">
+      <c r="A20" s="337" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="341">
+      <c r="B20" s="339">
         <v>349537</v>
       </c>
       <c r="C20" s="246"/>
@@ -34160,11 +34145,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="437" t="s">
+      <c r="I20" s="416" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="437"/>
-      <c r="K20" s="437"/>
+      <c r="J20" s="416"/>
+      <c r="K20" s="416"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34191,11 +34176,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="438" t="s">
+      <c r="I21" s="429" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="439"/>
-      <c r="K21" s="440"/>
+      <c r="J21" s="430"/>
+      <c r="K21" s="431"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34220,15 +34205,15 @@
       <c r="E22" s="244">
         <v>302529</v>
       </c>
-      <c r="I22" s="443" t="s">
+      <c r="I22" s="423" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="443"/>
-      <c r="K22" s="443"/>
-      <c r="L22" s="346">
+      <c r="J22" s="423"/>
+      <c r="K22" s="423"/>
+      <c r="L22" s="344">
         <v>20000</v>
       </c>
-      <c r="M22" s="346"/>
+      <c r="M22" s="344"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -34249,15 +34234,15 @@
       <c r="E23" s="244">
         <v>271949</v>
       </c>
-      <c r="I23" s="444" t="s">
+      <c r="I23" s="417" t="s">
         <v>187</v>
       </c>
-      <c r="J23" s="445"/>
-      <c r="K23" s="446"/>
-      <c r="L23" s="346">
+      <c r="J23" s="418"/>
+      <c r="K23" s="419"/>
+      <c r="L23" s="344">
         <v>40000</v>
       </c>
-      <c r="M23" s="346"/>
+      <c r="M23" s="344"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -34265,10 +34250,10 @@
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A24" s="340" t="s">
+      <c r="A24" s="338" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="342">
+      <c r="B24" s="340">
         <v>85100</v>
       </c>
       <c r="C24" s="37"/>
@@ -34278,15 +34263,15 @@
       <c r="E24" s="302">
         <v>209997</v>
       </c>
-      <c r="I24" s="443" t="s">
+      <c r="I24" s="423" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="443"/>
-      <c r="K24" s="443"/>
-      <c r="L24" s="328">
+      <c r="J24" s="423"/>
+      <c r="K24" s="423"/>
+      <c r="L24" s="326">
         <v>30000</v>
       </c>
-      <c r="M24" s="328"/>
+      <c r="M24" s="326"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -34307,11 +34292,11 @@
       <c r="E25" s="244">
         <v>66145</v>
       </c>
-      <c r="I25" s="435" t="s">
+      <c r="I25" s="420" t="s">
         <v>166</v>
       </c>
-      <c r="J25" s="435"/>
-      <c r="K25" s="435"/>
+      <c r="J25" s="420"/>
+      <c r="K25" s="420"/>
       <c r="L25" s="310">
         <f>L17-L18-L19-L20-L21-L22-L23-L24</f>
         <v>98150</v>
@@ -34324,17 +34309,17 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="21.75">
-      <c r="A26" s="360" t="s">
+      <c r="A26" s="353" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="361">
+      <c r="B26" s="354">
         <v>99850</v>
       </c>
-      <c r="C26" s="362"/>
-      <c r="D26" s="363" t="s">
+      <c r="C26" s="355"/>
+      <c r="D26" s="356" t="s">
         <v>251</v>
       </c>
-      <c r="E26" s="364">
+      <c r="E26" s="357">
         <v>61308</v>
       </c>
       <c r="N26" s="7"/>
@@ -34344,17 +34329,17 @@
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" s="256" customFormat="1" ht="21.75">
-      <c r="A27" s="360" t="s">
+      <c r="A27" s="353" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="361">
+      <c r="B27" s="354">
         <v>10000</v>
       </c>
-      <c r="C27" s="362"/>
-      <c r="D27" s="363" t="s">
+      <c r="C27" s="355"/>
+      <c r="D27" s="356" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="364">
+      <c r="E27" s="357">
         <v>20000</v>
       </c>
       <c r="N27" s="7"/>
@@ -34377,13 +34362,13 @@
       <c r="E28" s="244">
         <v>31230</v>
       </c>
-      <c r="I28" s="447" t="s">
+      <c r="I28" s="424" t="s">
         <v>237</v>
       </c>
-      <c r="J28" s="448"/>
-      <c r="K28" s="448"/>
-      <c r="L28" s="448"/>
-      <c r="M28" s="449"/>
+      <c r="J28" s="425"/>
+      <c r="K28" s="425"/>
+      <c r="L28" s="425"/>
+      <c r="M28" s="426"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="245" t="s">
@@ -34399,15 +34384,15 @@
       <c r="E29" s="244">
         <v>30000</v>
       </c>
-      <c r="I29" s="441" t="s">
+      <c r="I29" s="421" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="441"/>
-      <c r="K29" s="442"/>
-      <c r="L29" s="376">
+      <c r="J29" s="421"/>
+      <c r="K29" s="422"/>
+      <c r="L29" s="369">
         <v>213170</v>
       </c>
-      <c r="M29" s="377"/>
+      <c r="M29" s="370"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -34415,24 +34400,24 @@
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" ht="22.5" thickBot="1">
-      <c r="A30" s="368"/>
-      <c r="B30" s="369"/>
-      <c r="C30" s="370"/>
-      <c r="D30" s="371" t="s">
+      <c r="A30" s="361"/>
+      <c r="B30" s="362"/>
+      <c r="C30" s="363"/>
+      <c r="D30" s="364" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="372">
+      <c r="E30" s="365">
         <v>300000</v>
       </c>
-      <c r="I30" s="450" t="s">
+      <c r="I30" s="415" t="s">
         <v>157</v>
       </c>
-      <c r="J30" s="437"/>
-      <c r="K30" s="437"/>
-      <c r="L30" s="374">
+      <c r="J30" s="416"/>
+      <c r="K30" s="416"/>
+      <c r="L30" s="367">
         <v>79500</v>
       </c>
-      <c r="M30" s="374" t="s">
+      <c r="M30" s="367" t="s">
         <v>238</v>
       </c>
       <c r="N30" s="7"/>
@@ -34442,22 +34427,22 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="18.75" thickBot="1">
-      <c r="A31" s="462" t="s">
+      <c r="A31" s="412" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="463"/>
-      <c r="C31" s="463"/>
-      <c r="D31" s="463"/>
-      <c r="E31" s="464"/>
-      <c r="I31" s="450" t="s">
+      <c r="B31" s="413"/>
+      <c r="C31" s="413"/>
+      <c r="D31" s="413"/>
+      <c r="E31" s="414"/>
+      <c r="I31" s="415" t="s">
         <v>157</v>
       </c>
-      <c r="J31" s="437"/>
-      <c r="K31" s="437"/>
-      <c r="L31" s="374">
+      <c r="J31" s="416"/>
+      <c r="K31" s="416"/>
+      <c r="L31" s="367">
         <v>47500</v>
       </c>
-      <c r="M31" s="374" t="s">
+      <c r="M31" s="367" t="s">
         <v>158</v>
       </c>
       <c r="N31" s="7"/>
@@ -34467,15 +34452,15 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="I32" s="450" t="s">
+      <c r="I32" s="415" t="s">
         <v>157</v>
       </c>
-      <c r="J32" s="437"/>
-      <c r="K32" s="437"/>
-      <c r="L32" s="374">
+      <c r="J32" s="416"/>
+      <c r="K32" s="416"/>
+      <c r="L32" s="367">
         <v>50000</v>
       </c>
-      <c r="M32" s="374" t="s">
+      <c r="M32" s="367" t="s">
         <v>159</v>
       </c>
       <c r="N32" s="7"/>
@@ -34485,11 +34470,11 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="I33" s="444"/>
-      <c r="J33" s="445"/>
-      <c r="K33" s="446"/>
-      <c r="L33" s="374"/>
-      <c r="M33" s="374"/>
+      <c r="I33" s="417"/>
+      <c r="J33" s="418"/>
+      <c r="K33" s="419"/>
+      <c r="L33" s="367"/>
+      <c r="M33" s="367"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -34497,16 +34482,16 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18" ht="15.75">
-      <c r="I34" s="435" t="s">
+      <c r="I34" s="420" t="s">
         <v>97</v>
       </c>
-      <c r="J34" s="435"/>
-      <c r="K34" s="435"/>
-      <c r="L34" s="373">
+      <c r="J34" s="420"/>
+      <c r="K34" s="420"/>
+      <c r="L34" s="366">
         <f>L29-L30-L31-L32-L33</f>
         <v>36170</v>
       </c>
-      <c r="M34" s="373"/>
+      <c r="M34" s="366"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -37171,11 +37156,16 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I29:K29"/>
@@ -37184,16 +37174,11 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -37227,10 +37212,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="451" t="s">
+      <c r="A1" s="447" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="452"/>
+      <c r="B1" s="448"/>
       <c r="C1" s="248">
         <f>C73+G13+E1</f>
         <v>185410</v>
@@ -37246,13 +37231,13 @@
       <c r="C2" s="251"/>
       <c r="D2" s="251"/>
       <c r="E2" s="251"/>
-      <c r="F2" s="343" t="s">
+      <c r="F2" s="341" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="344">
+      <c r="G2" s="342">
         <v>6000</v>
       </c>
-      <c r="H2" s="345" t="s">
+      <c r="H2" s="343" t="s">
         <v>188</v>
       </c>
     </row>
@@ -37269,20 +37254,20 @@
       <c r="D3" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="343" t="s">
+      <c r="F3" s="341" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="344">
+      <c r="G3" s="342">
         <v>6500</v>
       </c>
-      <c r="H3" s="345" t="s">
+      <c r="H3" s="343" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="455" t="s">
+      <c r="J3" s="451" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="455"/>
-      <c r="L3" s="455"/>
+      <c r="K3" s="451"/>
+      <c r="L3" s="451"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="24" t="s">
@@ -37291,7 +37276,7 @@
       <c r="B4" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="327">
+      <c r="C4" s="325">
         <v>4400</v>
       </c>
       <c r="D4" s="24"/>
@@ -37303,7 +37288,7 @@
         <v>23800</v>
       </c>
       <c r="H4" s="299"/>
-      <c r="I4" s="321"/>
+      <c r="I4" s="319"/>
       <c r="J4" s="312" t="s">
         <v>124</v>
       </c>
@@ -37321,21 +37306,21 @@
       <c r="B5" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="359">
+      <c r="C5" s="352">
         <v>1000</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="60"/>
-      <c r="F5" s="324" t="s">
+      <c r="F5" s="322" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="325">
+      <c r="G5" s="323">
         <v>19810</v>
       </c>
-      <c r="H5" s="323" t="s">
+      <c r="H5" s="321" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="321"/>
+      <c r="I5" s="319"/>
       <c r="J5" s="312" t="s">
         <v>123</v>
       </c>
@@ -37353,21 +37338,21 @@
       <c r="B6" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="358">
+      <c r="C6" s="351">
         <v>8400</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="60"/>
-      <c r="F6" s="324" t="s">
+      <c r="F6" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="325">
+      <c r="G6" s="323">
         <v>187100</v>
       </c>
-      <c r="H6" s="323" t="s">
+      <c r="H6" s="321" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="321"/>
+      <c r="I6" s="319"/>
       <c r="J6" s="313" t="s">
         <v>124</v>
       </c>
@@ -37385,21 +37370,21 @@
       <c r="B7" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="358">
+      <c r="C7" s="351">
         <v>6000</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="60"/>
-      <c r="F7" s="324" t="s">
+      <c r="F7" s="322" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="325">
+      <c r="G7" s="323">
         <v>6000</v>
       </c>
-      <c r="H7" s="323" t="s">
+      <c r="H7" s="321" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="322"/>
+      <c r="I7" s="320"/>
       <c r="J7" s="313" t="s">
         <v>123</v>
       </c>
@@ -37417,18 +37402,18 @@
       <c r="B8" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="358">
+      <c r="C8" s="351">
         <v>4000</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="60"/>
-      <c r="F8" s="324" t="s">
+      <c r="F8" s="322" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="325">
+      <c r="G8" s="323">
         <v>6000</v>
       </c>
-      <c r="H8" s="323" t="s">
+      <c r="H8" s="321" t="s">
         <v>148</v>
       </c>
       <c r="J8" s="313" t="s">
@@ -37442,24 +37427,24 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="375" t="s">
+      <c r="A9" s="368" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="375" t="s">
+      <c r="B9" s="368" t="s">
         <v>235</v>
       </c>
       <c r="C9" s="299">
         <v>3000</v>
       </c>
-      <c r="D9" s="375"/>
+      <c r="D9" s="368"/>
       <c r="E9" s="60"/>
-      <c r="F9" s="324" t="s">
+      <c r="F9" s="322" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="325">
+      <c r="G9" s="323">
         <v>6000</v>
       </c>
-      <c r="H9" s="323" t="s">
+      <c r="H9" s="321" t="s">
         <v>149</v>
       </c>
       <c r="J9" s="312" t="s">
@@ -37479,19 +37464,19 @@
       <c r="B10" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="358">
+      <c r="C10" s="351">
         <v>8000</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="60"/>
-      <c r="F10" s="326" t="s">
+      <c r="F10" s="324" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="326">
+      <c r="G10" s="324">
         <f>SUM(G2:G9)</f>
         <v>261210</v>
       </c>
-      <c r="H10" s="326"/>
+      <c r="H10" s="324"/>
       <c r="J10" s="312" t="s">
         <v>124</v>
       </c>
@@ -37509,18 +37494,18 @@
       <c r="B11" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="358">
+      <c r="C11" s="351">
         <v>3200</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="60"/>
-      <c r="F11" s="367" t="s">
+      <c r="F11" s="360" t="s">
         <v>231</v>
       </c>
-      <c r="G11" s="328">
+      <c r="G11" s="326">
         <v>176500</v>
       </c>
-      <c r="H11" s="367" t="s">
+      <c r="H11" s="360" t="s">
         <v>230</v>
       </c>
       <c r="J11" s="312" t="s">
@@ -37540,7 +37525,7 @@
       <c r="B12" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="358">
+      <c r="C12" s="351">
         <v>5300</v>
       </c>
       <c r="D12" s="24"/>
@@ -37559,23 +37544,23 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A13" s="375" t="s">
+      <c r="A13" s="368" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="375" t="s">
+      <c r="B13" s="368" t="s">
         <v>247</v>
       </c>
       <c r="C13" s="299">
         <v>6000</v>
       </c>
-      <c r="D13" s="375"/>
+      <c r="D13" s="368"/>
       <c r="E13" s="60"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="380">
+      <c r="F13" s="373"/>
+      <c r="G13" s="373">
         <f>G10-G11</f>
         <v>84710</v>
       </c>
-      <c r="H13" s="380"/>
+      <c r="H13" s="373"/>
       <c r="J13" s="313" t="s">
         <v>140</v>
       </c>
@@ -37593,16 +37578,16 @@
       <c r="B14" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="378">
+      <c r="C14" s="371">
         <v>1000</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="60"/>
-      <c r="F14" s="459" t="s">
+      <c r="F14" s="455" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="460"/>
-      <c r="H14" s="461"/>
+      <c r="G14" s="456"/>
+      <c r="H14" s="457"/>
       <c r="J14" s="313" t="s">
         <v>123</v>
       </c>
@@ -37620,16 +37605,16 @@
       <c r="B15" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="358">
+      <c r="C15" s="351">
         <v>10500</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="60"/>
-      <c r="F15" s="456" t="s">
+      <c r="F15" s="452" t="s">
         <v>236</v>
       </c>
-      <c r="G15" s="457"/>
-      <c r="H15" s="458"/>
+      <c r="G15" s="453"/>
+      <c r="H15" s="454"/>
       <c r="J15" s="313" t="s">
         <v>140</v>
       </c>
@@ -37647,18 +37632,18 @@
       <c r="B16" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="379">
+      <c r="C16" s="372">
         <v>4500</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="60"/>
-      <c r="F16" s="381" t="s">
+      <c r="F16" s="374" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="382">
+      <c r="G16" s="375">
         <v>16500</v>
       </c>
-      <c r="H16" s="381" t="s">
+      <c r="H16" s="374" t="s">
         <v>230</v>
       </c>
       <c r="J16" s="313" t="s">
@@ -37678,18 +37663,18 @@
       <c r="B17" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="385">
+      <c r="C17" s="378">
         <v>5400</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="218"/>
-      <c r="F17" s="328" t="s">
+      <c r="F17" s="326" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="328">
+      <c r="G17" s="326">
         <v>15000</v>
       </c>
-      <c r="H17" s="328" t="s">
+      <c r="H17" s="326" t="s">
         <v>234</v>
       </c>
       <c r="J17" s="313" t="s">
@@ -37705,16 +37690,16 @@
     <row r="18" spans="1:12">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="358"/>
+      <c r="C18" s="351"/>
       <c r="D18" s="24"/>
       <c r="E18" s="218"/>
-      <c r="F18" s="328" t="s">
+      <c r="F18" s="326" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="328">
+      <c r="G18" s="326">
         <v>27700</v>
       </c>
-      <c r="H18" s="328" t="s">
+      <c r="H18" s="326" t="s">
         <v>234</v>
       </c>
       <c r="J18" s="313" t="s">
@@ -37730,16 +37715,16 @@
     <row r="19" spans="1:12">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="358"/>
+      <c r="C19" s="351"/>
       <c r="D19" s="24"/>
       <c r="E19" s="218"/>
-      <c r="F19" s="328" t="s">
+      <c r="F19" s="326" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="328">
+      <c r="G19" s="326">
         <v>34500</v>
       </c>
-      <c r="H19" s="328" t="s">
+      <c r="H19" s="326" t="s">
         <v>239</v>
       </c>
       <c r="J19" s="312" t="s">
@@ -37755,16 +37740,16 @@
     <row r="20" spans="1:12">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="358"/>
+      <c r="C20" s="351"/>
       <c r="D20" s="24"/>
       <c r="E20" s="218"/>
-      <c r="F20" s="328" t="s">
+      <c r="F20" s="326" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="328">
+      <c r="G20" s="326">
         <v>17600</v>
       </c>
-      <c r="H20" s="328" t="s">
+      <c r="H20" s="326" t="s">
         <v>239</v>
       </c>
       <c r="J20" s="315" t="s">
@@ -37780,16 +37765,16 @@
     <row r="21" spans="1:12">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="358"/>
+      <c r="C21" s="351"/>
       <c r="D21" s="24"/>
       <c r="E21" s="218"/>
-      <c r="F21" s="328" t="s">
+      <c r="F21" s="326" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="328">
+      <c r="G21" s="326">
         <v>6000</v>
       </c>
-      <c r="H21" s="328" t="s">
+      <c r="H21" s="326" t="s">
         <v>241</v>
       </c>
       <c r="J21" s="316" t="s">
@@ -37805,16 +37790,16 @@
     <row r="22" spans="1:12">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="358"/>
+      <c r="C22" s="351"/>
       <c r="D22" s="24"/>
       <c r="E22" s="218"/>
-      <c r="F22" s="328" t="s">
+      <c r="F22" s="326" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="328">
+      <c r="G22" s="326">
         <v>13600</v>
       </c>
-      <c r="H22" s="328" t="s">
+      <c r="H22" s="326" t="s">
         <v>245</v>
       </c>
       <c r="J22" s="313" t="s">
@@ -37830,16 +37815,16 @@
     <row r="23" spans="1:12">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="358"/>
+      <c r="C23" s="351"/>
       <c r="D23" s="24"/>
       <c r="E23" s="218"/>
-      <c r="F23" s="328" t="s">
+      <c r="F23" s="326" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="328">
+      <c r="G23" s="326">
         <v>12000</v>
       </c>
-      <c r="H23" s="367" t="s">
+      <c r="H23" s="360" t="s">
         <v>255</v>
       </c>
       <c r="J23" s="317" t="s">
@@ -37855,12 +37840,12 @@
     <row r="24" spans="1:12">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="358"/>
+      <c r="C24" s="351"/>
       <c r="D24" s="24"/>
       <c r="E24" s="218"/>
-      <c r="F24" s="328"/>
-      <c r="G24" s="328"/>
-      <c r="H24" s="328"/>
+      <c r="F24" s="326"/>
+      <c r="G24" s="326"/>
+      <c r="H24" s="326"/>
       <c r="J24" s="313"/>
       <c r="K24" s="313"/>
       <c r="L24" s="313"/>
@@ -37868,12 +37853,12 @@
     <row r="25" spans="1:12" ht="15">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="358"/>
+      <c r="C25" s="351"/>
       <c r="D25" s="24"/>
       <c r="E25" s="218"/>
-      <c r="F25" s="328"/>
-      <c r="G25" s="328"/>
-      <c r="H25" s="328"/>
+      <c r="F25" s="326"/>
+      <c r="G25" s="326"/>
+      <c r="H25" s="326"/>
       <c r="J25" s="311" t="s">
         <v>4</v>
       </c>
@@ -37886,129 +37871,129 @@
     <row r="26" spans="1:12">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="358"/>
+      <c r="C26" s="351"/>
       <c r="D26" s="24"/>
       <c r="E26" s="218"/>
-      <c r="F26" s="328"/>
-      <c r="G26" s="328"/>
-      <c r="H26" s="328"/>
+      <c r="F26" s="326"/>
+      <c r="G26" s="326"/>
+      <c r="H26" s="326"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="358"/>
+      <c r="C27" s="351"/>
       <c r="D27" s="24"/>
       <c r="E27" s="218"/>
-      <c r="F27" s="383" t="s">
+      <c r="F27" s="376" t="s">
         <v>256</v>
       </c>
-      <c r="G27" s="384">
+      <c r="G27" s="377">
         <v>100000</v>
       </c>
-      <c r="H27" s="383" t="s">
+      <c r="H27" s="376" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="358"/>
+      <c r="C28" s="351"/>
       <c r="D28" s="24"/>
       <c r="E28" s="218"/>
-      <c r="F28" s="383" t="s">
+      <c r="F28" s="376" t="s">
         <v>259</v>
       </c>
-      <c r="G28" s="384">
+      <c r="G28" s="377">
         <v>23800</v>
       </c>
-      <c r="H28" s="383" t="s">
+      <c r="H28" s="376" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="358"/>
+      <c r="C29" s="351"/>
       <c r="D29" s="24"/>
       <c r="E29" s="218"/>
-      <c r="F29" s="328"/>
-      <c r="G29" s="328"/>
-      <c r="H29" s="328"/>
+      <c r="F29" s="326"/>
+      <c r="G29" s="326"/>
+      <c r="H29" s="326"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="358"/>
+      <c r="C30" s="351"/>
       <c r="D30" s="24"/>
       <c r="E30" s="218"/>
-      <c r="F30" s="328"/>
-      <c r="G30" s="328"/>
-      <c r="H30" s="328"/>
+      <c r="F30" s="326"/>
+      <c r="G30" s="326"/>
+      <c r="H30" s="326"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="358"/>
+      <c r="C31" s="351"/>
       <c r="D31" s="24"/>
       <c r="E31" s="218"/>
-      <c r="F31" s="328"/>
-      <c r="G31" s="328"/>
-      <c r="H31" s="328"/>
+      <c r="F31" s="326"/>
+      <c r="G31" s="326"/>
+      <c r="H31" s="326"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="358"/>
+      <c r="C32" s="351"/>
       <c r="D32" s="24"/>
       <c r="E32" s="218"/>
-      <c r="F32" s="328"/>
-      <c r="G32" s="328"/>
-      <c r="H32" s="328"/>
+      <c r="F32" s="326"/>
+      <c r="G32" s="326"/>
+      <c r="H32" s="326"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="358"/>
+      <c r="C33" s="351"/>
       <c r="D33" s="24"/>
       <c r="E33" s="218"/>
-      <c r="F33" s="328"/>
-      <c r="G33" s="328"/>
-      <c r="H33" s="328"/>
+      <c r="F33" s="326"/>
+      <c r="G33" s="326"/>
+      <c r="H33" s="326"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="327"/>
+      <c r="C34" s="325"/>
       <c r="D34" s="24"/>
       <c r="E34" s="218"/>
-      <c r="F34" s="328"/>
-      <c r="G34" s="328"/>
-      <c r="H34" s="328"/>
+      <c r="F34" s="326"/>
+      <c r="G34" s="326"/>
+      <c r="H34" s="326"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="327"/>
+      <c r="C35" s="325"/>
       <c r="D35" s="24"/>
       <c r="E35" s="60"/>
-      <c r="F35" s="328"/>
-      <c r="G35" s="328"/>
-      <c r="H35" s="328"/>
+      <c r="F35" s="326"/>
+      <c r="G35" s="326"/>
+      <c r="H35" s="326"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="327"/>
+      <c r="C36" s="325"/>
       <c r="D36" s="24"/>
       <c r="E36" s="218"/>
-      <c r="F36" s="328"/>
-      <c r="G36" s="328"/>
-      <c r="H36" s="328"/>
+      <c r="F36" s="326"/>
+      <c r="G36" s="326"/>
+      <c r="H36" s="326"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="327"/>
+      <c r="C37" s="325"/>
       <c r="D37" s="24"/>
       <c r="E37" s="60"/>
       <c r="F37" s="299" t="s">
@@ -38023,253 +38008,253 @@
     <row r="38" spans="1:8">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="327"/>
+      <c r="C38" s="325"/>
       <c r="D38" s="24"/>
       <c r="E38" s="218"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
-      <c r="C39" s="327"/>
+      <c r="C39" s="325"/>
       <c r="D39" s="24"/>
       <c r="E39" s="218"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="327"/>
+      <c r="C40" s="325"/>
       <c r="D40" s="24"/>
       <c r="E40" s="218"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="327"/>
+      <c r="C41" s="325"/>
       <c r="D41" s="24"/>
       <c r="E41" s="218"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="327"/>
+      <c r="C42" s="325"/>
       <c r="D42" s="24"/>
       <c r="E42" s="218"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="327"/>
+      <c r="C43" s="325"/>
       <c r="D43" s="24"/>
       <c r="E43" s="295"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="327"/>
+      <c r="C44" s="325"/>
       <c r="D44" s="24"/>
       <c r="E44" s="295"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="327"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="24"/>
       <c r="E45" s="295"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="327"/>
+      <c r="C46" s="325"/>
       <c r="D46" s="24"/>
       <c r="E46" s="295"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="327"/>
+      <c r="C47" s="325"/>
       <c r="D47" s="24"/>
       <c r="E47" s="295"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="327"/>
+      <c r="C48" s="325"/>
       <c r="D48" s="24"/>
       <c r="E48" s="295"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="327"/>
+      <c r="C49" s="325"/>
       <c r="D49" s="24"/>
       <c r="E49" s="295"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="327"/>
+      <c r="C50" s="325"/>
       <c r="D50" s="24"/>
       <c r="E50" s="295"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="327"/>
+      <c r="C51" s="325"/>
       <c r="D51" s="24"/>
       <c r="E51" s="295"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="327"/>
+      <c r="C52" s="325"/>
       <c r="D52" s="24"/>
       <c r="E52" s="295"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="327"/>
+      <c r="C53" s="325"/>
       <c r="D53" s="24"/>
       <c r="E53" s="295"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="327"/>
+      <c r="C54" s="325"/>
       <c r="D54" s="24"/>
       <c r="E54" s="295"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="327"/>
+      <c r="C55" s="325"/>
       <c r="D55" s="24"/>
       <c r="E55" s="295"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
-      <c r="C56" s="327"/>
+      <c r="C56" s="325"/>
       <c r="D56" s="24"/>
       <c r="E56" s="295"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
-      <c r="C57" s="327"/>
+      <c r="C57" s="325"/>
       <c r="D57" s="24"/>
       <c r="E57" s="295"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
-      <c r="C58" s="327"/>
+      <c r="C58" s="325"/>
       <c r="D58" s="24"/>
       <c r="E58" s="295"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
-      <c r="C59" s="327"/>
+      <c r="C59" s="325"/>
       <c r="D59" s="24"/>
       <c r="E59" s="295"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
-      <c r="C60" s="327"/>
+      <c r="C60" s="325"/>
       <c r="D60" s="24"/>
       <c r="E60" s="295"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
-      <c r="C61" s="327"/>
+      <c r="C61" s="325"/>
       <c r="D61" s="24"/>
       <c r="E61" s="295"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
-      <c r="C62" s="327"/>
+      <c r="C62" s="325"/>
       <c r="D62" s="24"/>
       <c r="E62" s="295"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
-      <c r="C63" s="327"/>
+      <c r="C63" s="325"/>
       <c r="D63" s="24"/>
       <c r="E63" s="295"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
-      <c r="C64" s="327"/>
+      <c r="C64" s="325"/>
       <c r="D64" s="24"/>
       <c r="E64" s="295"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
-      <c r="C65" s="327"/>
+      <c r="C65" s="325"/>
       <c r="D65" s="24"/>
       <c r="E65" s="295"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
-      <c r="C66" s="327"/>
+      <c r="C66" s="325"/>
       <c r="D66" s="24"/>
       <c r="E66" s="295"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
-      <c r="C67" s="327"/>
+      <c r="C67" s="325"/>
       <c r="D67" s="24"/>
       <c r="E67" s="295"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
-      <c r="C68" s="327"/>
+      <c r="C68" s="325"/>
       <c r="D68" s="24"/>
       <c r="E68" s="295"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="327"/>
+      <c r="C69" s="325"/>
       <c r="D69" s="24"/>
       <c r="E69" s="295"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="327"/>
+      <c r="C70" s="325"/>
       <c r="D70" s="24"/>
       <c r="E70" s="295"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="327"/>
+      <c r="C71" s="325"/>
       <c r="D71" s="24"/>
       <c r="E71" s="295"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="327"/>
+      <c r="C72" s="325"/>
       <c r="D72" s="24"/>
       <c r="E72" s="295"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="453" t="s">
+      <c r="A73" s="449" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="454"/>
+      <c r="B73" s="450"/>
       <c r="C73" s="277">
         <f>SUM(C4:C72)</f>
         <v>70700</v>
